--- a/Results/RFE/Swallowing/noMFCCs/swallowing_noMFCCs_sillabe_rfe.xlsx
+++ b/Results/RFE/Swallowing/noMFCCs/swallowing_noMFCCs_sillabe_rfe.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Validation</t>
+          <t>F1 train</t>
         </is>
       </c>
     </row>
@@ -562,7 +562,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8341391941391942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -617,7 +617,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7827106227106227</v>
+        <v>0.9714285714285714</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8071428571428572</v>
+        <v>0.9859154929577465</v>
       </c>
     </row>
     <row r="5">
@@ -727,7 +727,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8067032967032967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (16,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'tanh', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -752,37 +752,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L6" t="n">
-        <v>0.45</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7654320987654321</v>
       </c>
     </row>
     <row r="7">
@@ -837,7 +837,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9405128205128206</v>
+        <v>0.927536231884058</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7638461538461538</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="9">
@@ -947,7 +947,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7688095238095239</v>
+        <v>0.9859154929577465</v>
       </c>
     </row>
     <row r="10">
@@ -1002,7 +1002,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7361904761904763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (32, 16), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64,), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1027,37 +1027,37 @@
         </is>
       </c>
       <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="n">
         <v>8</v>
       </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6575567493483767</v>
+        <v>0.673469387755102</v>
       </c>
     </row>
     <row r="12">
@@ -1112,7 +1112,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O12" t="n">
-        <v>0.868095238095238</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="13">
@@ -1167,7 +1167,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8057315233785822</v>
+        <v>0.9855072463768116</v>
       </c>
     </row>
     <row r="14">
@@ -1222,7 +1222,7 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="O14" t="n">
-        <v>0.78</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="15">
@@ -1277,7 +1277,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7861721611721613</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="16">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (32,), 'learning_rate': 'constant'}</t>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'hidden_layer_sizes': (64, 32), 'learning_rate': 'constant'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1302,37 +1302,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L16" t="n">
-        <v>0.45</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6258234519104084</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
   </sheetData>
